--- a/tablas aspectos relevantes.xlsx
+++ b/tablas aspectos relevantes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asier\Desktop\tfg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE8BEF0-94E8-42E7-9F36-CD00C72995B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C5DC8-4B49-4B51-9010-A30B2BC6AC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{C3C40A54-1631-47F5-96D6-BD759C3DF97A}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{C3C40A54-1631-47F5-96D6-BD759C3DF97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AAAE0-AA27-4E0A-AFEF-9D5A359CE0B6}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,8 +982,8 @@
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22">
-        <v>5.3393100000000002</v>
+      <c r="B22" s="2">
+        <v>493979</v>
       </c>
       <c r="C22">
         <v>10.1652</v>
@@ -1001,8 +1002,8 @@
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23">
-        <v>2.0532300000000001</v>
+      <c r="B23" s="2">
+        <v>215832</v>
       </c>
       <c r="C23">
         <v>2.8420200000000002</v>
@@ -1021,8 +1022,8 @@
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24">
-        <v>2.1681300000000001</v>
+      <c r="B24" s="2">
+        <v>206203</v>
       </c>
       <c r="C24">
         <v>2.30233</v>
@@ -1041,8 +1042,8 @@
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25">
-        <v>8.6582399999999993</v>
+      <c r="B25" s="2">
+        <v>842121</v>
       </c>
       <c r="C25">
         <v>12.061299999999999</v>
@@ -1061,8 +1062,8 @@
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26">
-        <v>4.21157</v>
+      <c r="B26" s="2">
+        <v>354456</v>
       </c>
       <c r="C26">
         <v>6.76755</v>
